--- a/docs/QC Validation Criteria Template.xlsx
+++ b/docs/QC Validation Criteria Template.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="106">
   <si>
     <t>WARN</t>
   </si>
@@ -305,6 +305,39 @@
   </si>
   <si>
     <t>QC View DML</t>
+  </si>
+  <si>
+    <t>CCD_QC_CRUISE_SUPP_V</t>
+  </si>
+  <si>
+    <t>CCD2</t>
+  </si>
+  <si>
+    <t>Centralized Cruise Database Data Stream Testing</t>
+  </si>
+  <si>
+    <t>HIGH_LEG_COUNT_YN</t>
+  </si>
+  <si>
+    <t>Unusually High Number of Cruise Legs</t>
+  </si>
+  <si>
+    <t>The cruise has an unusually high ( &gt; 2) number of associated legs</t>
+  </si>
+  <si>
+    <t>INVALID_LEG_COUNT_YN</t>
+  </si>
+  <si>
+    <t>Invalid Number of Cruise Legs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The cruise has an invalid number of associated legs ( &gt; 4) </t>
+  </si>
+  <si>
+    <t>The Cruise ([CRUISE_NAME]) with Start Date ([FORMAT_CRUISE_START_DATE]) and End Date ([FORMAT_CRUISE_END_DATE]) has an unusually high number of cruise legs ([NUM_LEGS]), normally there should be less than three legs for a given cruise</t>
+  </si>
+  <si>
+    <t>The Cruise ([CRUISE_NAME]) with Start Date ([FORMAT_CRUISE_START_DATE]) and End Date ([FORMAT_CRUISE_END_DATE]) has an invalid number of cruise legs ([NUM_LEGS]), normally there should be no more than four legs</t>
   </si>
 </sst>
 </file>
@@ -763,9 +796,9 @@
   </sheetPr>
   <dimension ref="A1:X888"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -875,8 +908,8 @@
         <v>insert into DVM_DATA_STREAMS (DATA_STREAM_CODE, DATA_STREAM_NAME, DATA_STREAM_PAR_TABLE) VALUES ('CCD', 'Centralized Cruise Database', 'CCD_CRUISES');</v>
       </c>
       <c r="M2" s="5" t="str">
-        <f>CONCATENATE("insert into DVM_QC_OBJECTS (OBJECT_NAME, QC_OBJ_ACTIVE_YN, QC_SORT_ORDER) VALUES ('", SUBSTITUTE(E2, "'", "''"), "', 'Y', ", F2, ");")</f>
-        <v>insert into DVM_QC_OBJECTS (OBJECT_NAME, QC_OBJ_ACTIVE_YN, QC_SORT_ORDER) VALUES ('CCD_QC_CRUISE_V', 'Y', );</v>
+        <f>CONCATENATE("insert into DVM_QC_OBJECTS (OBJECT_NAME, QC_OBJ_ACTIVE_YN, QC_SORT_ORDER) VALUES ('", SUBSTITUTE(E2, "'", "''"), "', 'Y', ", IF(ISBLANK(F2), "NULL", F2), ");")</f>
+        <v>insert into DVM_QC_OBJECTS (OBJECT_NAME, QC_OBJ_ACTIVE_YN, QC_SORT_ORDER) VALUES ('CCD_QC_CRUISE_V', 'Y', NULL);</v>
       </c>
       <c r="N2" s="5" t="str">
         <f t="shared" ref="N2:N18" si="0">CONCATENATE("INSERT INTO DVM_ERROR_TYPES (ERR_TYPE_NAME, ERR_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ERR_SEVERITY_ID, DATA_STREAM_ID, ERR_TYPE_ACTIVE_YN, ERR_TYPE_DESC, APP_LINK_TEMPLATE) VALUES ('", SUBSTITUTE(H2, "'", "''"), "', '", SUBSTITUTE(J2, "'", "''"), "', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = '", E2, "'), '", G2, "', (SELECT ERR_SEVERITY_ID FROM DVM_ERR_SEVERITY WHERE ERR_SEVERITY_CODE = '",D2, "'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = '",A2, "'), 'Y', '", SUBSTITUTE(I2, "'", "''"), "', '", SUBSTITUTE(K2, "'", "''"), "');")</f>
@@ -1323,7 +1356,7 @@
       </c>
       <c r="L11" s="5"/>
       <c r="M11" s="5" t="str">
-        <f>CONCATENATE("insert into DVM_QC_OBJECTS (OBJECT_NAME, QC_OBJ_ACTIVE_YN, QC_SORT_ORDER) VALUES ('", SUBSTITUTE(E11, "'", "''"), "', 'Y', ", F11, ");")</f>
+        <f>CONCATENATE("insert into DVM_QC_OBJECTS (OBJECT_NAME, QC_OBJ_ACTIVE_YN, QC_SORT_ORDER) VALUES ('", SUBSTITUTE(E11, "'", "''"), "', 'Y', ", IF(ISBLANK(F11), "NULL", F11), ");")</f>
         <v>insert into DVM_QC_OBJECTS (OBJECT_NAME, QC_OBJ_ACTIVE_YN, QC_SORT_ORDER) VALUES ('CCD_QC_LEG_ALIAS_V', 'Y', 15);</v>
       </c>
       <c r="N11" s="5" t="str">
@@ -1377,7 +1410,7 @@
       </c>
       <c r="L12" s="5"/>
       <c r="M12" s="5" t="str">
-        <f>CONCATENATE("insert into DVM_QC_OBJECTS (OBJECT_NAME, QC_OBJ_ACTIVE_YN, QC_SORT_ORDER) VALUES ('", SUBSTITUTE(E12, "'", "''"), "', 'Y', ", F12, ");")</f>
+        <f>CONCATENATE("insert into DVM_QC_OBJECTS (OBJECT_NAME, QC_OBJ_ACTIVE_YN, QC_SORT_ORDER) VALUES ('", SUBSTITUTE(E12, "'", "''"), "', 'Y', ", IF(ISBLANK(F12), "NULL", F12), ");")</f>
         <v>insert into DVM_QC_OBJECTS (OBJECT_NAME, QC_OBJ_ACTIVE_YN, QC_SORT_ORDER) VALUES ('CCD_QC_LEG_OVERLAP_V', 'Y', 20);</v>
       </c>
       <c r="N12" s="5" t="str">
@@ -1676,8 +1709,8 @@
       </c>
       <c r="L18" s="5"/>
       <c r="M18" s="5" t="str">
-        <f>CONCATENATE("insert into DVM_QC_OBJECTS (OBJECT_NAME, QC_OBJ_ACTIVE_YN, QC_SORT_ORDER) VALUES ('", SUBSTITUTE(E18, "'", "''"), "', 'Y', ", F18, ");")</f>
-        <v>insert into DVM_QC_OBJECTS (OBJECT_NAME, QC_OBJ_ACTIVE_YN, QC_SORT_ORDER) VALUES ('CCD_QC_LEG_V', 'Y', );</v>
+        <f>CONCATENATE("insert into DVM_QC_OBJECTS (OBJECT_NAME, QC_OBJ_ACTIVE_YN, QC_SORT_ORDER) VALUES ('", SUBSTITUTE(E18, "'", "''"), "', 'Y', ", IF(ISBLANK(F18), "NULL", F18), ");")</f>
+        <v>insert into DVM_QC_OBJECTS (OBJECT_NAME, QC_OBJ_ACTIVE_YN, QC_SORT_ORDER) VALUES ('CCD_QC_LEG_V', 'Y', NULL);</v>
       </c>
       <c r="N18" s="5" t="str">
         <f t="shared" si="0"/>
@@ -2058,21 +2091,50 @@
       <c r="W32" s="1"/>
       <c r="X32" s="1"/>
     </row>
-    <row r="33" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="1"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
+    <row r="33" spans="1:24" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>95</v>
+      </c>
       <c r="F33" s="3"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
+      <c r="G33" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="K33" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="L33" s="5" t="str">
+        <f>CONCATENATE("insert into DVM_DATA_STREAMS (DATA_STREAM_CODE, DATA_STREAM_NAME, DATA_STREAM_PAR_TABLE) VALUES ('", SUBSTITUTE(A33, "'", "''"), "', '", SUBSTITUTE(B33, "'", "''"), "', '", SUBSTITUTE(C33, "'", "''"), "');")</f>
+        <v>insert into DVM_DATA_STREAMS (DATA_STREAM_CODE, DATA_STREAM_NAME, DATA_STREAM_PAR_TABLE) VALUES ('CCD2', 'Centralized Cruise Database Data Stream Testing', 'CCD_CRUISES');</v>
+      </c>
+      <c r="M33" s="5" t="str">
+        <f>CONCATENATE("insert into DVM_QC_OBJECTS (OBJECT_NAME, QC_OBJ_ACTIVE_YN, QC_SORT_ORDER) VALUES ('", SUBSTITUTE(E33, "'", "''"), "', 'Y', ", IF(ISBLANK(F33), "NULL", F33), ");")</f>
+        <v>insert into DVM_QC_OBJECTS (OBJECT_NAME, QC_OBJ_ACTIVE_YN, QC_SORT_ORDER) VALUES ('CCD_QC_CRUISE_SUPP_V', 'Y', NULL);</v>
+      </c>
+      <c r="N33" s="5" t="str">
+        <f t="shared" ref="N33:N34" si="1">CONCATENATE("INSERT INTO DVM_ERROR_TYPES (ERR_TYPE_NAME, ERR_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ERR_SEVERITY_ID, DATA_STREAM_ID, ERR_TYPE_ACTIVE_YN, ERR_TYPE_DESC, APP_LINK_TEMPLATE) VALUES ('", SUBSTITUTE(H33, "'", "''"), "', '", SUBSTITUTE(J33, "'", "''"), "', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = '", E33, "'), '", G33, "', (SELECT ERR_SEVERITY_ID FROM DVM_ERR_SEVERITY WHERE ERR_SEVERITY_CODE = '",D33, "'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = '",A33, "'), 'Y', '", SUBSTITUTE(I33, "'", "''"), "', '", SUBSTITUTE(K33, "'", "''"), "');")</f>
+        <v>INSERT INTO DVM_ERROR_TYPES (ERR_TYPE_NAME, ERR_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ERR_SEVERITY_ID, DATA_STREAM_ID, ERR_TYPE_ACTIVE_YN, ERR_TYPE_DESC, APP_LINK_TEMPLATE) VALUES ('Unusually High Number of Cruise Legs', 'The Cruise ([CRUISE_NAME]) with Start Date ([FORMAT_CRUISE_START_DATE]) and End Date ([FORMAT_CRUISE_END_DATE]) has an unusually high number of cruise legs ([NUM_LEGS]), normally there should be less than three legs for a given cruise', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = 'CCD_QC_CRUISE_SUPP_V'), 'HIGH_LEG_COUNT_YN', (SELECT ERR_SEVERITY_ID FROM DVM_ERR_SEVERITY WHERE ERR_SEVERITY_CODE = 'WARN'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = 'CCD2'), 'Y', 'The cruise has an unusually high ( &gt; 2) number of associated legs', 'f?p=[APP_ID]:220:[APP_SESSION]::NO::P220_CRUISE_ID,P220_CRUISE_ID_COPY:[CRUISE_ID],');</v>
+      </c>
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
@@ -2084,21 +2146,44 @@
       <c r="W33" s="1"/>
       <c r="X33" s="1"/>
     </row>
-    <row r="34" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="1"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
+    <row r="34" spans="1:24" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>95</v>
+      </c>
       <c r="F34" s="3"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="1"/>
+      <c r="G34" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="J34" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="K34" s="5" t="s">
+        <v>79</v>
+      </c>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
+      <c r="N34" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO DVM_ERROR_TYPES (ERR_TYPE_NAME, ERR_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ERR_SEVERITY_ID, DATA_STREAM_ID, ERR_TYPE_ACTIVE_YN, ERR_TYPE_DESC, APP_LINK_TEMPLATE) VALUES ('Invalid Number of Cruise Legs', 'The Cruise ([CRUISE_NAME]) with Start Date ([FORMAT_CRUISE_START_DATE]) and End Date ([FORMAT_CRUISE_END_DATE]) has an invalid number of cruise legs ([NUM_LEGS]), normally there should be no more than four legs', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = 'CCD_QC_CRUISE_SUPP_V'), 'INVALID_LEG_COUNT_YN', (SELECT ERR_SEVERITY_ID FROM DVM_ERR_SEVERITY WHERE ERR_SEVERITY_CODE = 'WARN'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = 'CCD2'), 'Y', 'The cruise has an invalid number of associated legs ( &gt; 4) ', 'f?p=[APP_ID]:220:[APP_SESSION]::NO::P220_CRUISE_ID,P220_CRUISE_ID_COPY:[CRUISE_ID],');</v>
+      </c>
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>

--- a/docs/QC Validation Criteria Template.xlsx
+++ b/docs/QC Validation Criteria Template.xlsx
@@ -796,9 +796,9 @@
   </sheetPr>
   <dimension ref="A1:X888"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I32" sqref="I32"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -912,8 +912,8 @@
         <v>insert into DVM_QC_OBJECTS (OBJECT_NAME, QC_OBJ_ACTIVE_YN, QC_SORT_ORDER) VALUES ('CCD_QC_CRUISE_V', 'Y', NULL);</v>
       </c>
       <c r="N2" s="5" t="str">
-        <f t="shared" ref="N2:N18" si="0">CONCATENATE("INSERT INTO DVM_ERROR_TYPES (ERR_TYPE_NAME, ERR_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ERR_SEVERITY_ID, DATA_STREAM_ID, ERR_TYPE_ACTIVE_YN, ERR_TYPE_DESC, APP_LINK_TEMPLATE) VALUES ('", SUBSTITUTE(H2, "'", "''"), "', '", SUBSTITUTE(J2, "'", "''"), "', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = '", E2, "'), '", G2, "', (SELECT ERR_SEVERITY_ID FROM DVM_ERR_SEVERITY WHERE ERR_SEVERITY_CODE = '",D2, "'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = '",A2, "'), 'Y', '", SUBSTITUTE(I2, "'", "''"), "', '", SUBSTITUTE(K2, "'", "''"), "');")</f>
-        <v>INSERT INTO DVM_ERROR_TYPES (ERR_TYPE_NAME, ERR_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ERR_SEVERITY_ID, DATA_STREAM_ID, ERR_TYPE_ACTIVE_YN, ERR_TYPE_DESC, APP_LINK_TEMPLATE) VALUES ('Invalid Copied Cruise Name', 'The Cruise ([CRUISE_NAME]) with Start Date ([FORMAT_CRUISE_START_DATE]) and End Date ([FORMAT_CRUISE_END_DATE]) has "(copy)" in the Cruise Name, this should be renamed', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = 'CCD_QC_CRUISE_V'), 'INV_CRUISE_NAME_COPY_YN', (SELECT ERR_SEVERITY_ID FROM DVM_ERR_SEVERITY WHERE ERR_SEVERITY_CODE = 'ERROR'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = 'CCD'), 'Y', 'The Cruise Name contains "(copy)" which indicates it was created using the "Deep Copy" feature and should be renamed', 'f?p=[APP_ID]:220:[APP_SESSION]::NO::P220_CRUISE_ID,P220_CRUISE_ID_COPY:[CRUISE_ID],');</v>
+        <f>CONCATENATE("INSERT INTO DVM_ISS_TYPES (ISS_TYPE_NAME, ISS_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ISS_SEVERITY_ID, DATA_STREAM_ID, ISS_TYPE_ACTIVE_YN, ISS_TYPE_DESC, APP_LINK_TEMPLATE) VALUES ('", SUBSTITUTE(H2, "'", "''"), "', '", SUBSTITUTE(J2, "'", "''"), "', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = '", E2, "'), '", G2, "', (SELECT ISS_SEVERITY_ID FROM DVM_ISS_SEVERITY WHERE ISS_SEVERITY_CODE = '",D2, "'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = '",A2, "'), 'Y', '", SUBSTITUTE(I2, "'", "''"), "', '", SUBSTITUTE(K2, "'", "''"), "');")</f>
+        <v>INSERT INTO DVM_ISS_TYPES (ISS_TYPE_NAME, ISS_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ISS_SEVERITY_ID, DATA_STREAM_ID, ISS_TYPE_ACTIVE_YN, ISS_TYPE_DESC, APP_LINK_TEMPLATE) VALUES ('Invalid Copied Cruise Name', 'The Cruise ([CRUISE_NAME]) with Start Date ([FORMAT_CRUISE_START_DATE]) and End Date ([FORMAT_CRUISE_END_DATE]) has "(copy)" in the Cruise Name, this should be renamed', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = 'CCD_QC_CRUISE_V'), 'INV_CRUISE_NAME_COPY_YN', (SELECT ISS_SEVERITY_ID FROM DVM_ISS_SEVERITY WHERE ISS_SEVERITY_CODE = 'ERROR'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = 'CCD'), 'Y', 'The Cruise Name contains "(copy)" which indicates it was created using the "Deep Copy" feature and should be renamed', 'f?p=[APP_ID]:220:[APP_SESSION]::NO::P220_CRUISE_ID,P220_CRUISE_ID_COPY:[CRUISE_ID],');</v>
       </c>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
@@ -961,8 +961,8 @@
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
       <c r="N3" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO DVM_ERROR_TYPES (ERR_TYPE_NAME, ERR_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ERR_SEVERITY_ID, DATA_STREAM_ID, ERR_TYPE_ACTIVE_YN, ERR_TYPE_DESC, APP_LINK_TEMPLATE) VALUES ('Invalid Cruise Days at Sea', 'The Cruise ([CRUISE_NAME]) with Start Date ([FORMAT_CRUISE_START_DATE]) and End Date ([FORMAT_CRUISE_END_DATE]) and number of Legs ([NUM_LEGS]) has an invalid number ( &gt; 240) of Days at Sea ([CRUISE_DAS])', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = 'CCD_QC_CRUISE_V'), 'ERR_CRUISE_DAS_YN', (SELECT ERR_SEVERITY_ID FROM DVM_ERR_SEVERITY WHERE ERR_SEVERITY_CODE = 'ERROR'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = 'CCD'), 'Y', 'Cruise is too long (DAS based on start and end dates) &gt; 240 days', 'f?p=[APP_ID]:220:[APP_SESSION]::NO::P220_CRUISE_ID,P220_CRUISE_ID_COPY:[CRUISE_ID],');</v>
+        <f t="shared" ref="N3:N18" si="0">CONCATENATE("INSERT INTO DVM_ISS_TYPES (ISS_TYPE_NAME, ISS_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ISS_SEVERITY_ID, DATA_STREAM_ID, ISS_TYPE_ACTIVE_YN, ISS_TYPE_DESC, APP_LINK_TEMPLATE) VALUES ('", SUBSTITUTE(H3, "'", "''"), "', '", SUBSTITUTE(J3, "'", "''"), "', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = '", E3, "'), '", G3, "', (SELECT ISS_SEVERITY_ID FROM DVM_ISS_SEVERITY WHERE ISS_SEVERITY_CODE = '",D3, "'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = '",A3, "'), 'Y', '", SUBSTITUTE(I3, "'", "''"), "', '", SUBSTITUTE(K3, "'", "''"), "');")</f>
+        <v>INSERT INTO DVM_ISS_TYPES (ISS_TYPE_NAME, ISS_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ISS_SEVERITY_ID, DATA_STREAM_ID, ISS_TYPE_ACTIVE_YN, ISS_TYPE_DESC, APP_LINK_TEMPLATE) VALUES ('Invalid Cruise Days at Sea', 'The Cruise ([CRUISE_NAME]) with Start Date ([FORMAT_CRUISE_START_DATE]) and End Date ([FORMAT_CRUISE_END_DATE]) and number of Legs ([NUM_LEGS]) has an invalid number ( &gt; 240) of Days at Sea ([CRUISE_DAS])', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = 'CCD_QC_CRUISE_V'), 'ERR_CRUISE_DAS_YN', (SELECT ISS_SEVERITY_ID FROM DVM_ISS_SEVERITY WHERE ISS_SEVERITY_CODE = 'ERROR'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = 'CCD'), 'Y', 'Cruise is too long (DAS based on start and end dates) &gt; 240 days', 'f?p=[APP_ID]:220:[APP_SESSION]::NO::P220_CRUISE_ID,P220_CRUISE_ID_COPY:[CRUISE_ID],');</v>
       </c>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
@@ -1011,7 +1011,7 @@
       <c r="M4" s="5"/>
       <c r="N4" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO DVM_ERROR_TYPES (ERR_TYPE_NAME, ERR_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ERR_SEVERITY_ID, DATA_STREAM_ID, ERR_TYPE_ACTIVE_YN, ERR_TYPE_DESC, APP_LINK_TEMPLATE) VALUES ('Invalid Cruise Length', 'The Cruise ([CRUISE_NAME]) with Start Date ([FORMAT_CRUISE_START_DATE]) and End Date ([FORMAT_CRUISE_END_DATE]) and number of Legs ([NUM_LEGS]) has an invalid length ( &gt; 280) days based on the date range ([CRUISE_LEN_DAYS] days) ', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = 'CCD_QC_CRUISE_V'), 'ERR_CRUISE_DATE_RNG_YN', (SELECT ERR_SEVERITY_ID FROM DVM_ERR_SEVERITY WHERE ERR_SEVERITY_CODE = 'ERROR'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = 'CCD'), 'Y', 'Cruise is too long (based on the cruise start and end dates even if the leg DAS is not over the threshold) &gt; 280 days', 'f?p=[APP_ID]:220:[APP_SESSION]::NO::P220_CRUISE_ID,P220_CRUISE_ID_COPY:[CRUISE_ID],');</v>
+        <v>INSERT INTO DVM_ISS_TYPES (ISS_TYPE_NAME, ISS_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ISS_SEVERITY_ID, DATA_STREAM_ID, ISS_TYPE_ACTIVE_YN, ISS_TYPE_DESC, APP_LINK_TEMPLATE) VALUES ('Invalid Cruise Length', 'The Cruise ([CRUISE_NAME]) with Start Date ([FORMAT_CRUISE_START_DATE]) and End Date ([FORMAT_CRUISE_END_DATE]) and number of Legs ([NUM_LEGS]) has an invalid length ( &gt; 280) days based on the date range ([CRUISE_LEN_DAYS] days) ', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = 'CCD_QC_CRUISE_V'), 'ERR_CRUISE_DATE_RNG_YN', (SELECT ISS_SEVERITY_ID FROM DVM_ISS_SEVERITY WHERE ISS_SEVERITY_CODE = 'ERROR'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = 'CCD'), 'Y', 'Cruise is too long (based on the cruise start and end dates even if the leg DAS is not over the threshold) &gt; 280 days', 'f?p=[APP_ID]:220:[APP_SESSION]::NO::P220_CRUISE_ID,P220_CRUISE_ID_COPY:[CRUISE_ID],');</v>
       </c>
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
@@ -1060,7 +1060,7 @@
       <c r="M5" s="5"/>
       <c r="N5" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO DVM_ERROR_TYPES (ERR_TYPE_NAME, ERR_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ERR_SEVERITY_ID, DATA_STREAM_ID, ERR_TYPE_ACTIVE_YN, ERR_TYPE_DESC, APP_LINK_TEMPLATE) VALUES ('Invalid Cruise Name', 'The Cruise ([CRUISE_NAME]) with Start Date ([FORMAT_CRUISE_START_DATE]) and End Date ([FORMAT_CRUISE_END_DATE]) has an invalid Cruise Name based on the required naming convention: {SN}-{YR}-{##} where {SN} is a valid abbreviation for a NOAA ship name, {YR} is a two digit year with a leading zero, and {##} is a sequential number with a leading zero', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = 'CCD_QC_CRUISE_V'), 'INV_CRUISE_NAME_YN', (SELECT ERR_SEVERITY_ID FROM DVM_ERR_SEVERITY WHERE ERR_SEVERITY_CODE = 'ERROR'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = 'CCD'), 'Y', 'The cruise name does not follow the naming convention {SN}-{YR}-{##} where {SN} is a valid abbreviation for a NOAA ship name, {YR} is a two digit year with a leading zero, and {##} is a sequential number with a leading zero', 'f?p=[APP_ID]:220:[APP_SESSION]::NO::P220_CRUISE_ID,P220_CRUISE_ID_COPY:[CRUISE_ID],');</v>
+        <v>INSERT INTO DVM_ISS_TYPES (ISS_TYPE_NAME, ISS_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ISS_SEVERITY_ID, DATA_STREAM_ID, ISS_TYPE_ACTIVE_YN, ISS_TYPE_DESC, APP_LINK_TEMPLATE) VALUES ('Invalid Cruise Name', 'The Cruise ([CRUISE_NAME]) with Start Date ([FORMAT_CRUISE_START_DATE]) and End Date ([FORMAT_CRUISE_END_DATE]) has an invalid Cruise Name based on the required naming convention: {SN}-{YR}-{##} where {SN} is a valid abbreviation for a NOAA ship name, {YR} is a two digit year with a leading zero, and {##} is a sequential number with a leading zero', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = 'CCD_QC_CRUISE_V'), 'INV_CRUISE_NAME_YN', (SELECT ISS_SEVERITY_ID FROM DVM_ISS_SEVERITY WHERE ISS_SEVERITY_CODE = 'ERROR'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = 'CCD'), 'Y', 'The cruise name does not follow the naming convention {SN}-{YR}-{##} where {SN} is a valid abbreviation for a NOAA ship name, {YR} is a two digit year with a leading zero, and {##} is a sequential number with a leading zero', 'f?p=[APP_ID]:220:[APP_SESSION]::NO::P220_CRUISE_ID,P220_CRUISE_ID_COPY:[CRUISE_ID],');</v>
       </c>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
@@ -1109,7 +1109,7 @@
       <c r="M6" s="5"/>
       <c r="N6" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO DVM_ERROR_TYPES (ERR_TYPE_NAME, ERR_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ERR_SEVERITY_ID, DATA_STREAM_ID, ERR_TYPE_ACTIVE_YN, ERR_TYPE_DESC, APP_LINK_TEMPLATE) VALUES ('Mismatched Cruise Name and Fiscal Year', 'The Cruise ([CRUISE_NAME]) with Start Date ([FORMAT_CRUISE_START_DATE]) and End Date ([FORMAT_CRUISE_END_DATE]) has a valid Cruise Name based on the required naming convention ({SN}-{YR}-{##}) but the extracted {YR} value ([CRUISE_NAME_FY]) does not match the truncated Cruise''s Fiscal Year value ([CRUISE_FISC_YEAR_TRUNC])', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = 'CCD_QC_CRUISE_V'), 'INV_CRUISE_NAME_FY_YN', (SELECT ERR_SEVERITY_ID FROM DVM_ERR_SEVERITY WHERE ERR_SEVERITY_CODE = 'ERROR'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = 'CCD'), 'Y', 'The cruise name follows the naming convention {SN}-{YR}-{##} but {YR} does not match the Cruise Fiscal Year based on the first leg''s start date', 'f?p=[APP_ID]:220:[APP_SESSION]::NO::P220_CRUISE_ID,P220_CRUISE_ID_COPY:[CRUISE_ID],');</v>
+        <v>INSERT INTO DVM_ISS_TYPES (ISS_TYPE_NAME, ISS_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ISS_SEVERITY_ID, DATA_STREAM_ID, ISS_TYPE_ACTIVE_YN, ISS_TYPE_DESC, APP_LINK_TEMPLATE) VALUES ('Mismatched Cruise Name and Fiscal Year', 'The Cruise ([CRUISE_NAME]) with Start Date ([FORMAT_CRUISE_START_DATE]) and End Date ([FORMAT_CRUISE_END_DATE]) has a valid Cruise Name based on the required naming convention ({SN}-{YR}-{##}) but the extracted {YR} value ([CRUISE_NAME_FY]) does not match the truncated Cruise''s Fiscal Year value ([CRUISE_FISC_YEAR_TRUNC])', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = 'CCD_QC_CRUISE_V'), 'INV_CRUISE_NAME_FY_YN', (SELECT ISS_SEVERITY_ID FROM DVM_ISS_SEVERITY WHERE ISS_SEVERITY_CODE = 'ERROR'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = 'CCD'), 'Y', 'The cruise name follows the naming convention {SN}-{YR}-{##} but {YR} does not match the Cruise Fiscal Year based on the first leg''s start date', 'f?p=[APP_ID]:220:[APP_SESSION]::NO::P220_CRUISE_ID,P220_CRUISE_ID_COPY:[CRUISE_ID],');</v>
       </c>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
@@ -1158,7 +1158,7 @@
       <c r="M7" s="5"/>
       <c r="N7" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO DVM_ERROR_TYPES (ERR_TYPE_NAME, ERR_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ERR_SEVERITY_ID, DATA_STREAM_ID, ERR_TYPE_ACTIVE_YN, ERR_TYPE_DESC, APP_LINK_TEMPLATE) VALUES ('Missing Cruise Primary Survey Category', 'The Cruise ([CRUISE_NAME]) with Start Date ([FORMAT_CRUISE_START_DATE]) and End Date ([FORMAT_CRUISE_END_DATE]) and number of Legs ([NUM_LEGS]) does not have at least one Primary Survey Category defined for it', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = 'CCD_QC_CRUISE_V'), 'MISS_PRIM_SVY_CAT_YN', (SELECT ERR_SEVERITY_ID FROM DVM_ERR_SEVERITY WHERE ERR_SEVERITY_CODE = 'WARN'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = 'CCD'), 'Y', 'The Cruise does not have a Primary Survey Category defined for it', 'f?p=[APP_ID]:220:[APP_SESSION]::NO::P220_CRUISE_ID,P220_CRUISE_ID_COPY:[CRUISE_ID],');</v>
+        <v>INSERT INTO DVM_ISS_TYPES (ISS_TYPE_NAME, ISS_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ISS_SEVERITY_ID, DATA_STREAM_ID, ISS_TYPE_ACTIVE_YN, ISS_TYPE_DESC, APP_LINK_TEMPLATE) VALUES ('Missing Cruise Primary Survey Category', 'The Cruise ([CRUISE_NAME]) with Start Date ([FORMAT_CRUISE_START_DATE]) and End Date ([FORMAT_CRUISE_END_DATE]) and number of Legs ([NUM_LEGS]) does not have at least one Primary Survey Category defined for it', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = 'CCD_QC_CRUISE_V'), 'MISS_PRIM_SVY_CAT_YN', (SELECT ISS_SEVERITY_ID FROM DVM_ISS_SEVERITY WHERE ISS_SEVERITY_CODE = 'WARN'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = 'CCD'), 'Y', 'The Cruise does not have a Primary Survey Category defined for it', 'f?p=[APP_ID]:220:[APP_SESSION]::NO::P220_CRUISE_ID,P220_CRUISE_ID_COPY:[CRUISE_ID],');</v>
       </c>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
@@ -1209,7 +1209,7 @@
       <c r="M8" s="5"/>
       <c r="N8" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO DVM_ERROR_TYPES (ERR_TYPE_NAME, ERR_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ERR_SEVERITY_ID, DATA_STREAM_ID, ERR_TYPE_ACTIVE_YN, ERR_TYPE_DESC, APP_LINK_TEMPLATE) VALUES ('Missing Standard Survey Name', 'The Cruise ([CRUISE_NAME]) with Start Date ([FORMAT_CRUISE_START_DATE]) and End Date ([FORMAT_CRUISE_END_DATE]) does not have a Standard Survey Name defined for it', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = 'CCD_QC_CRUISE_V'), 'MISS_STD_SVY_NAME_YN', (SELECT ERR_SEVERITY_ID FROM DVM_ERR_SEVERITY WHERE ERR_SEVERITY_CODE = 'ERROR'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = 'CCD'), 'Y', 'Both the Cruise Standard Survey Name fields were not populated, one or the other must be specified', 'f?p=[APP_ID]:220:[APP_SESSION]::NO::P220_CRUISE_ID,P220_CRUISE_ID_COPY:[CRUISE_ID],');</v>
+        <v>INSERT INTO DVM_ISS_TYPES (ISS_TYPE_NAME, ISS_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ISS_SEVERITY_ID, DATA_STREAM_ID, ISS_TYPE_ACTIVE_YN, ISS_TYPE_DESC, APP_LINK_TEMPLATE) VALUES ('Missing Standard Survey Name', 'The Cruise ([CRUISE_NAME]) with Start Date ([FORMAT_CRUISE_START_DATE]) and End Date ([FORMAT_CRUISE_END_DATE]) does not have a Standard Survey Name defined for it', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = 'CCD_QC_CRUISE_V'), 'MISS_STD_SVY_NAME_YN', (SELECT ISS_SEVERITY_ID FROM DVM_ISS_SEVERITY WHERE ISS_SEVERITY_CODE = 'ERROR'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = 'CCD'), 'Y', 'Both the Cruise Standard Survey Name fields were not populated, one or the other must be specified', 'f?p=[APP_ID]:220:[APP_SESSION]::NO::P220_CRUISE_ID,P220_CRUISE_ID_COPY:[CRUISE_ID],');</v>
       </c>
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
@@ -1258,7 +1258,7 @@
       <c r="M9" s="5"/>
       <c r="N9" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO DVM_ERROR_TYPES (ERR_TYPE_NAME, ERR_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ERR_SEVERITY_ID, DATA_STREAM_ID, ERR_TYPE_ACTIVE_YN, ERR_TYPE_DESC, APP_LINK_TEMPLATE) VALUES ('Unusually High Cruise Days at Sea', 'The Cruise ([CRUISE_NAME]) with Start Date ([FORMAT_CRUISE_START_DATE]) and End Date ([FORMAT_CRUISE_END_DATE]) and number of Legs ([NUM_LEGS]) has an unusually high number ( &gt; 120) of Days at Sea ([CRUISE_DAS])', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = 'CCD_QC_CRUISE_V'), 'WARN_CRUISE_DAS_YN', (SELECT ERR_SEVERITY_ID FROM DVM_ERR_SEVERITY WHERE ERR_SEVERITY_CODE = 'WARN'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = 'CCD'), 'Y', 'Cruise is too long (DAS based on start and end dates) &gt; 120 days', 'f?p=[APP_ID]:220:[APP_SESSION]::NO::P220_CRUISE_ID,P220_CRUISE_ID_COPY:[CRUISE_ID],');</v>
+        <v>INSERT INTO DVM_ISS_TYPES (ISS_TYPE_NAME, ISS_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ISS_SEVERITY_ID, DATA_STREAM_ID, ISS_TYPE_ACTIVE_YN, ISS_TYPE_DESC, APP_LINK_TEMPLATE) VALUES ('Unusually High Cruise Days at Sea', 'The Cruise ([CRUISE_NAME]) with Start Date ([FORMAT_CRUISE_START_DATE]) and End Date ([FORMAT_CRUISE_END_DATE]) and number of Legs ([NUM_LEGS]) has an unusually high number ( &gt; 120) of Days at Sea ([CRUISE_DAS])', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = 'CCD_QC_CRUISE_V'), 'WARN_CRUISE_DAS_YN', (SELECT ISS_SEVERITY_ID FROM DVM_ISS_SEVERITY WHERE ISS_SEVERITY_CODE = 'WARN'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = 'CCD'), 'Y', 'Cruise is too long (DAS based on start and end dates) &gt; 120 days', 'f?p=[APP_ID]:220:[APP_SESSION]::NO::P220_CRUISE_ID,P220_CRUISE_ID_COPY:[CRUISE_ID],');</v>
       </c>
       <c r="O9" s="5"/>
       <c r="P9" s="5"/>
@@ -1307,7 +1307,7 @@
       <c r="M10" s="5"/>
       <c r="N10" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO DVM_ERROR_TYPES (ERR_TYPE_NAME, ERR_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ERR_SEVERITY_ID, DATA_STREAM_ID, ERR_TYPE_ACTIVE_YN, ERR_TYPE_DESC, APP_LINK_TEMPLATE) VALUES ('Unusually High Cruise Length', 'The Cruise ([CRUISE_NAME]) with Start Date ([FORMAT_CRUISE_START_DATE]) and End Date ([FORMAT_CRUISE_END_DATE]) and number of Legs ([NUM_LEGS]) is unusually long ( &gt; 160) days based on the date range ([CRUISE_LEN_DAYS] days) ', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = 'CCD_QC_CRUISE_V'), 'WARN_CRUISE_DATE_RNG_YN', (SELECT ERR_SEVERITY_ID FROM DVM_ERR_SEVERITY WHERE ERR_SEVERITY_CODE = 'WARN'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = 'CCD'), 'Y', 'Cruise is too long (based on the cruise start and end dates even if the leg DAS is not over the threshold) &gt; 160 days', 'f?p=[APP_ID]:220:[APP_SESSION]::NO::P220_CRUISE_ID,P220_CRUISE_ID_COPY:[CRUISE_ID],');</v>
+        <v>INSERT INTO DVM_ISS_TYPES (ISS_TYPE_NAME, ISS_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ISS_SEVERITY_ID, DATA_STREAM_ID, ISS_TYPE_ACTIVE_YN, ISS_TYPE_DESC, APP_LINK_TEMPLATE) VALUES ('Unusually High Cruise Length', 'The Cruise ([CRUISE_NAME]) with Start Date ([FORMAT_CRUISE_START_DATE]) and End Date ([FORMAT_CRUISE_END_DATE]) and number of Legs ([NUM_LEGS]) is unusually long ( &gt; 160) days based on the date range ([CRUISE_LEN_DAYS] days) ', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = 'CCD_QC_CRUISE_V'), 'WARN_CRUISE_DATE_RNG_YN', (SELECT ISS_SEVERITY_ID FROM DVM_ISS_SEVERITY WHERE ISS_SEVERITY_CODE = 'WARN'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = 'CCD'), 'Y', 'Cruise is too long (based on the cruise start and end dates even if the leg DAS is not over the threshold) &gt; 160 days', 'f?p=[APP_ID]:220:[APP_SESSION]::NO::P220_CRUISE_ID,P220_CRUISE_ID_COPY:[CRUISE_ID],');</v>
       </c>
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
@@ -1361,7 +1361,7 @@
       </c>
       <c r="N11" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO DVM_ERROR_TYPES (ERR_TYPE_NAME, ERR_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ERR_SEVERITY_ID, DATA_STREAM_ID, ERR_TYPE_ACTIVE_YN, ERR_TYPE_DESC, APP_LINK_TEMPLATE) VALUES ('Invalid Copied Leg Alias Name', 'The Cruise ([CRUISE_NAME]) has a Cruise Leg ([LEG_NAME]) on the Vessel ([VESSEL_NAME]) with Start Date ([FORMAT_LEG_START_DATE]) and End Date ([FORMAT_LEG_END_DATE]) that has a Leg alias name ([LEG_ALIAS_NAME]) that contains "(copy)", this should be renamed', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = 'CCD_QC_LEG_ALIAS_V'), 'INV_LEG_ALIAS_COPY_YN', (SELECT ERR_SEVERITY_ID FROM DVM_ERR_SEVERITY WHERE ERR_SEVERITY_CODE = 'ERROR'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = 'CCD'), 'Y', 'The Leg Alias Name contains "(copy)" which indicates it was created using the "Deep Copy" feature and should be renamed', 'f?p=[APP_ID]:230:[APP_SESSION]::NO::P230_CRUISE_LEG_ID,P230_CRUISE_LEG_ID_COPY,P230_CRUISE_ID:[CRUISE_LEG_ID],,[CRUISE_ID]');</v>
+        <v>INSERT INTO DVM_ISS_TYPES (ISS_TYPE_NAME, ISS_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ISS_SEVERITY_ID, DATA_STREAM_ID, ISS_TYPE_ACTIVE_YN, ISS_TYPE_DESC, APP_LINK_TEMPLATE) VALUES ('Invalid Copied Leg Alias Name', 'The Cruise ([CRUISE_NAME]) has a Cruise Leg ([LEG_NAME]) on the Vessel ([VESSEL_NAME]) with Start Date ([FORMAT_LEG_START_DATE]) and End Date ([FORMAT_LEG_END_DATE]) that has a Leg alias name ([LEG_ALIAS_NAME]) that contains "(copy)", this should be renamed', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = 'CCD_QC_LEG_ALIAS_V'), 'INV_LEG_ALIAS_COPY_YN', (SELECT ISS_SEVERITY_ID FROM DVM_ISS_SEVERITY WHERE ISS_SEVERITY_CODE = 'ERROR'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = 'CCD'), 'Y', 'The Leg Alias Name contains "(copy)" which indicates it was created using the "Deep Copy" feature and should be renamed', 'f?p=[APP_ID]:230:[APP_SESSION]::NO::P230_CRUISE_LEG_ID,P230_CRUISE_LEG_ID_COPY,P230_CRUISE_ID:[CRUISE_LEG_ID],,[CRUISE_ID]');</v>
       </c>
       <c r="O11" s="5"/>
       <c r="P11" s="5"/>
@@ -1415,7 +1415,7 @@
       </c>
       <c r="N12" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO DVM_ERROR_TYPES (ERR_TYPE_NAME, ERR_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ERR_SEVERITY_ID, DATA_STREAM_ID, ERR_TYPE_ACTIVE_YN, ERR_TYPE_DESC, APP_LINK_TEMPLATE) VALUES ('Cruise Leg Overlap', 'There are two legs for the same Cruise ([CRUISE_NAME1]) whose leg dates overlap; Cruise Leg 1: (Leg Name: [LEG_NAME1], Vessel: [VESSEL_NAME1], Start Date: [FORMAT_LEG_START_DATE1], End Date: [FORMAT_LEG_END_DATE1]), Leg 2: (Leg Name: [LEG_NAME2], Vessel: [VESSEL_NAME2], Start Date: [FORMAT_LEG_START_DATE2], End Date: [FORMAT_LEG_END_DATE2])', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = 'CCD_QC_LEG_OVERLAP_V'), 'CRUISE_OVERLAP_YN', (SELECT ERR_SEVERITY_ID FROM DVM_ERR_SEVERITY WHERE ERR_SEVERITY_CODE = 'ERROR'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = 'CCD'), 'Y', 'Two cruise legs that are associated with the same cruise have overlapping start/end dates, two legs for the same cruise cannot occur concurrently', 'f?p=[APP_ID]:230:[APP_SESSION]::NO::P230_CRUISE_LEG_ID,P230_CRUISE_LEG_ID_COPY,P230_CRUISE_ID:[CRUISE_LEG_ID1],,[CRUISE_ID]');</v>
+        <v>INSERT INTO DVM_ISS_TYPES (ISS_TYPE_NAME, ISS_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ISS_SEVERITY_ID, DATA_STREAM_ID, ISS_TYPE_ACTIVE_YN, ISS_TYPE_DESC, APP_LINK_TEMPLATE) VALUES ('Cruise Leg Overlap', 'There are two legs for the same Cruise ([CRUISE_NAME1]) whose leg dates overlap; Cruise Leg 1: (Leg Name: [LEG_NAME1], Vessel: [VESSEL_NAME1], Start Date: [FORMAT_LEG_START_DATE1], End Date: [FORMAT_LEG_END_DATE1]), Leg 2: (Leg Name: [LEG_NAME2], Vessel: [VESSEL_NAME2], Start Date: [FORMAT_LEG_START_DATE2], End Date: [FORMAT_LEG_END_DATE2])', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = 'CCD_QC_LEG_OVERLAP_V'), 'CRUISE_OVERLAP_YN', (SELECT ISS_SEVERITY_ID FROM DVM_ISS_SEVERITY WHERE ISS_SEVERITY_CODE = 'ERROR'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = 'CCD'), 'Y', 'Two cruise legs that are associated with the same cruise have overlapping start/end dates, two legs for the same cruise cannot occur concurrently', 'f?p=[APP_ID]:230:[APP_SESSION]::NO::P230_CRUISE_LEG_ID,P230_CRUISE_LEG_ID_COPY,P230_CRUISE_ID:[CRUISE_LEG_ID1],,[CRUISE_ID]');</v>
       </c>
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
@@ -1464,7 +1464,7 @@
       <c r="M13" s="5"/>
       <c r="N13" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO DVM_ERROR_TYPES (ERR_TYPE_NAME, ERR_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ERR_SEVERITY_ID, DATA_STREAM_ID, ERR_TYPE_ACTIVE_YN, ERR_TYPE_DESC, APP_LINK_TEMPLATE) VALUES ('Vessel Leg Overlap', 'There are two legs for the same Vessel ([VESSEL_NAME1]) whose leg dates overlap; Leg 1: (Cruise: [CRUISE_NAME1], Leg Name: [LEG_NAME1], Start Date: [FORMAT_LEG_START_DATE1], End Date: [FORMAT_LEG_END_DATE1]), Leg 2: (Cruise: [CRUISE_NAME2], Leg Name: [LEG_NAME2], Start Date: [FORMAT_LEG_START_DATE2], End Date: [FORMAT_LEG_END_DATE2])', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = 'CCD_QC_LEG_OVERLAP_V'), 'VESSEL_OVERLAP_YN', (SELECT ERR_SEVERITY_ID FROM DVM_ERR_SEVERITY WHERE ERR_SEVERITY_CODE = 'ERROR'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = 'CCD'), 'Y', 'Two cruise legs that are associated with the same vessel have overlapping start/end dates, two legs for the same vessel cannot occur concurrently', 'f?p=[APP_ID]:230:[APP_SESSION]::NO::P230_CRUISE_LEG_ID,P230_CRUISE_LEG_ID_COPY,P230_CRUISE_ID:[CRUISE_LEG_ID1],,[CRUISE_ID]');</v>
+        <v>INSERT INTO DVM_ISS_TYPES (ISS_TYPE_NAME, ISS_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ISS_SEVERITY_ID, DATA_STREAM_ID, ISS_TYPE_ACTIVE_YN, ISS_TYPE_DESC, APP_LINK_TEMPLATE) VALUES ('Vessel Leg Overlap', 'There are two legs for the same Vessel ([VESSEL_NAME1]) whose leg dates overlap; Leg 1: (Cruise: [CRUISE_NAME1], Leg Name: [LEG_NAME1], Start Date: [FORMAT_LEG_START_DATE1], End Date: [FORMAT_LEG_END_DATE1]), Leg 2: (Cruise: [CRUISE_NAME2], Leg Name: [LEG_NAME2], Start Date: [FORMAT_LEG_START_DATE2], End Date: [FORMAT_LEG_END_DATE2])', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = 'CCD_QC_LEG_OVERLAP_V'), 'VESSEL_OVERLAP_YN', (SELECT ISS_SEVERITY_ID FROM DVM_ISS_SEVERITY WHERE ISS_SEVERITY_CODE = 'ERROR'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = 'CCD'), 'Y', 'Two cruise legs that are associated with the same vessel have overlapping start/end dates, two legs for the same vessel cannot occur concurrently', 'f?p=[APP_ID]:230:[APP_SESSION]::NO::P230_CRUISE_LEG_ID,P230_CRUISE_LEG_ID_COPY,P230_CRUISE_ID:[CRUISE_LEG_ID1],,[CRUISE_ID]');</v>
       </c>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
@@ -1515,7 +1515,7 @@
       <c r="M14" s="5"/>
       <c r="N14" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO DVM_ERROR_TYPES (ERR_TYPE_NAME, ERR_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ERR_SEVERITY_ID, DATA_STREAM_ID, ERR_TYPE_ACTIVE_YN, ERR_TYPE_DESC, APP_LINK_TEMPLATE) VALUES ('Invalid Copied Leg Name', 'The Cruise ([CRUISE_NAME]) has a Cruise Leg ([LEG_NAME]) on the Vessel ([VESSEL_NAME]) with Start Date ([FORMAT_LEG_START_DATE]) and End Date ([FORMAT_LEG_END_DATE]) that has "(copy)" in the Leg Name, this should be renamed', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = 'CCD_QC_LEG_V'), 'INV_LEG_NAME_COPY_YN', (SELECT ERR_SEVERITY_ID FROM DVM_ERR_SEVERITY WHERE ERR_SEVERITY_CODE = 'ERROR'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = 'CCD'), 'Y', 'The Leg Name contains "(copy)" which indicates it was created using the "Deep Copy" feature and should be renamed', 'f?p=[APP_ID]:230:[APP_SESSION]::NO::P230_CRUISE_LEG_ID,P230_CRUISE_LEG_ID_COPY,P230_CRUISE_ID:[CRUISE_LEG_ID],,[CRUISE_ID]');</v>
+        <v>INSERT INTO DVM_ISS_TYPES (ISS_TYPE_NAME, ISS_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ISS_SEVERITY_ID, DATA_STREAM_ID, ISS_TYPE_ACTIVE_YN, ISS_TYPE_DESC, APP_LINK_TEMPLATE) VALUES ('Invalid Copied Leg Name', 'The Cruise ([CRUISE_NAME]) has a Cruise Leg ([LEG_NAME]) on the Vessel ([VESSEL_NAME]) with Start Date ([FORMAT_LEG_START_DATE]) and End Date ([FORMAT_LEG_END_DATE]) that has "(copy)" in the Leg Name, this should be renamed', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = 'CCD_QC_LEG_V'), 'INV_LEG_NAME_COPY_YN', (SELECT ISS_SEVERITY_ID FROM DVM_ISS_SEVERITY WHERE ISS_SEVERITY_CODE = 'ERROR'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = 'CCD'), 'Y', 'The Leg Name contains "(copy)" which indicates it was created using the "Deep Copy" feature and should be renamed', 'f?p=[APP_ID]:230:[APP_SESSION]::NO::P230_CRUISE_LEG_ID,P230_CRUISE_LEG_ID_COPY,P230_CRUISE_ID:[CRUISE_LEG_ID],,[CRUISE_ID]');</v>
       </c>
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
@@ -1564,7 +1564,7 @@
       <c r="M15" s="5"/>
       <c r="N15" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO DVM_ERROR_TYPES (ERR_TYPE_NAME, ERR_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ERR_SEVERITY_ID, DATA_STREAM_ID, ERR_TYPE_ACTIVE_YN, ERR_TYPE_DESC, APP_LINK_TEMPLATE) VALUES ('Invalid Leg Dates', 'The Cruise ([CRUISE_NAME]) has a Cruise Leg ([LEG_NAME]) on the Vessel ([VESSEL_NAME]) with a Start Date ([FORMAT_LEG_START_DATE]) and End Date ([FORMAT_LEG_END_DATE]) that are invalid, the Start Date occurs after the End Date', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = 'CCD_QC_LEG_V'), 'INV_LEG_DATES_YN', (SELECT ERR_SEVERITY_ID FROM DVM_ERR_SEVERITY WHERE ERR_SEVERITY_CODE = 'ERROR'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = 'CCD'), 'Y', 'The Leg''s Start Date occurs after the End Date', 'f?p=[APP_ID]:230:[APP_SESSION]::NO::P230_CRUISE_LEG_ID,P230_CRUISE_LEG_ID_COPY,P230_CRUISE_ID:[CRUISE_LEG_ID],,[CRUISE_ID]');</v>
+        <v>INSERT INTO DVM_ISS_TYPES (ISS_TYPE_NAME, ISS_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ISS_SEVERITY_ID, DATA_STREAM_ID, ISS_TYPE_ACTIVE_YN, ISS_TYPE_DESC, APP_LINK_TEMPLATE) VALUES ('Invalid Leg Dates', 'The Cruise ([CRUISE_NAME]) has a Cruise Leg ([LEG_NAME]) on the Vessel ([VESSEL_NAME]) with a Start Date ([FORMAT_LEG_START_DATE]) and End Date ([FORMAT_LEG_END_DATE]) that are invalid, the Start Date occurs after the End Date', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = 'CCD_QC_LEG_V'), 'INV_LEG_DATES_YN', (SELECT ISS_SEVERITY_ID FROM DVM_ISS_SEVERITY WHERE ISS_SEVERITY_CODE = 'ERROR'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = 'CCD'), 'Y', 'The Leg''s Start Date occurs after the End Date', 'f?p=[APP_ID]:230:[APP_SESSION]::NO::P230_CRUISE_LEG_ID,P230_CRUISE_LEG_ID_COPY,P230_CRUISE_ID:[CRUISE_LEG_ID],,[CRUISE_ID]');</v>
       </c>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
@@ -1613,7 +1613,7 @@
       <c r="M16" s="5"/>
       <c r="N16" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO DVM_ERROR_TYPES (ERR_TYPE_NAME, ERR_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ERR_SEVERITY_ID, DATA_STREAM_ID, ERR_TYPE_ACTIVE_YN, ERR_TYPE_DESC, APP_LINK_TEMPLATE) VALUES ('Invalid Leg Days at Sea', 'The Cruise ([CRUISE_NAME]) has a Cruise Leg ([LEG_NAME]) on the Vessel ([VESSEL_NAME]) with a Start Date ([FORMAT_LEG_START_DATE]) and End Date ([FORMAT_LEG_END_DATE]) that has an invalid number ( &gt; 90) of Days at Sea ([LEG_DAS])', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = 'CCD_QC_LEG_V'), 'ERR_LEG_DAS_YN', (SELECT ERR_SEVERITY_ID FROM DVM_ERR_SEVERITY WHERE ERR_SEVERITY_CODE = 'ERROR'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = 'CCD'), 'Y', 'Leg is too long (DAS based on start and end dates) &gt; 90 days', 'f?p=[APP_ID]:230:[APP_SESSION]::NO::P230_CRUISE_LEG_ID,P230_CRUISE_LEG_ID_COPY,P230_CRUISE_ID:[CRUISE_LEG_ID],,[CRUISE_ID]');</v>
+        <v>INSERT INTO DVM_ISS_TYPES (ISS_TYPE_NAME, ISS_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ISS_SEVERITY_ID, DATA_STREAM_ID, ISS_TYPE_ACTIVE_YN, ISS_TYPE_DESC, APP_LINK_TEMPLATE) VALUES ('Invalid Leg Days at Sea', 'The Cruise ([CRUISE_NAME]) has a Cruise Leg ([LEG_NAME]) on the Vessel ([VESSEL_NAME]) with a Start Date ([FORMAT_LEG_START_DATE]) and End Date ([FORMAT_LEG_END_DATE]) that has an invalid number ( &gt; 90) of Days at Sea ([LEG_DAS])', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = 'CCD_QC_LEG_V'), 'ERR_LEG_DAS_YN', (SELECT ISS_SEVERITY_ID FROM DVM_ISS_SEVERITY WHERE ISS_SEVERITY_CODE = 'ERROR'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = 'CCD'), 'Y', 'Leg is too long (DAS based on start and end dates) &gt; 90 days', 'f?p=[APP_ID]:230:[APP_SESSION]::NO::P230_CRUISE_LEG_ID,P230_CRUISE_LEG_ID_COPY,P230_CRUISE_ID:[CRUISE_LEG_ID],,[CRUISE_ID]');</v>
       </c>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
@@ -1662,7 +1662,7 @@
       <c r="M17" s="5"/>
       <c r="N17" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO DVM_ERROR_TYPES (ERR_TYPE_NAME, ERR_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ERR_SEVERITY_ID, DATA_STREAM_ID, ERR_TYPE_ACTIVE_YN, ERR_TYPE_DESC, APP_LINK_TEMPLATE) VALUES ('Missing Leg Gear', 'The Cruise ([CRUISE_NAME]) has a Cruise Leg ([LEG_NAME]) on the Vessel ([VESSEL_NAME]) with a Start Date ([FORMAT_LEG_START_DATE]) and End Date ([FORMAT_LEG_END_DATE]) that does not have at least one type of Gear defined for it', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = 'CCD_QC_LEG_V'), 'MISS_GEAR_YN', (SELECT ERR_SEVERITY_ID FROM DVM_ERR_SEVERITY WHERE ERR_SEVERITY_CODE = 'WARN'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = 'CCD'), 'Y', 'The Leg does not have any gear defined for it', 'f?p=[APP_ID]:230:[APP_SESSION]::NO::P230_CRUISE_LEG_ID,P230_CRUISE_LEG_ID_COPY,P230_CRUISE_ID:[CRUISE_LEG_ID],,[CRUISE_ID]');</v>
+        <v>INSERT INTO DVM_ISS_TYPES (ISS_TYPE_NAME, ISS_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ISS_SEVERITY_ID, DATA_STREAM_ID, ISS_TYPE_ACTIVE_YN, ISS_TYPE_DESC, APP_LINK_TEMPLATE) VALUES ('Missing Leg Gear', 'The Cruise ([CRUISE_NAME]) has a Cruise Leg ([LEG_NAME]) on the Vessel ([VESSEL_NAME]) with a Start Date ([FORMAT_LEG_START_DATE]) and End Date ([FORMAT_LEG_END_DATE]) that does not have at least one type of Gear defined for it', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = 'CCD_QC_LEG_V'), 'MISS_GEAR_YN', (SELECT ISS_SEVERITY_ID FROM DVM_ISS_SEVERITY WHERE ISS_SEVERITY_CODE = 'WARN'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = 'CCD'), 'Y', 'The Leg does not have any gear defined for it', 'f?p=[APP_ID]:230:[APP_SESSION]::NO::P230_CRUISE_LEG_ID,P230_CRUISE_LEG_ID_COPY,P230_CRUISE_ID:[CRUISE_LEG_ID],,[CRUISE_ID]');</v>
       </c>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
@@ -1714,7 +1714,7 @@
       </c>
       <c r="N18" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO DVM_ERROR_TYPES (ERR_TYPE_NAME, ERR_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ERR_SEVERITY_ID, DATA_STREAM_ID, ERR_TYPE_ACTIVE_YN, ERR_TYPE_DESC, APP_LINK_TEMPLATE) VALUES ('Unusually High Leg Days at Sea', 'The Cruise ([CRUISE_NAME]) has a Cruise Leg ([LEG_NAME]) on the Vessel ([VESSEL_NAME]) with a Start Date ([FORMAT_LEG_START_DATE]) and End Date ([FORMAT_LEG_END_DATE]) that has an unusually high number ( &gt; 30) of Days at Sea ([LEG_DAS])', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = 'CCD_QC_LEG_V'), 'WARN_LEG_DAS_YN', (SELECT ERR_SEVERITY_ID FROM DVM_ERR_SEVERITY WHERE ERR_SEVERITY_CODE = 'WARN'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = 'CCD'), 'Y', 'Leg is too long (DAS based on start and end dates) &gt; 30 days', 'f?p=[APP_ID]:230:[APP_SESSION]::NO::P230_CRUISE_LEG_ID,P230_CRUISE_LEG_ID_COPY,P230_CRUISE_ID:[CRUISE_LEG_ID],,[CRUISE_ID]');</v>
+        <v>INSERT INTO DVM_ISS_TYPES (ISS_TYPE_NAME, ISS_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ISS_SEVERITY_ID, DATA_STREAM_ID, ISS_TYPE_ACTIVE_YN, ISS_TYPE_DESC, APP_LINK_TEMPLATE) VALUES ('Unusually High Leg Days at Sea', 'The Cruise ([CRUISE_NAME]) has a Cruise Leg ([LEG_NAME]) on the Vessel ([VESSEL_NAME]) with a Start Date ([FORMAT_LEG_START_DATE]) and End Date ([FORMAT_LEG_END_DATE]) that has an unusually high number ( &gt; 30) of Days at Sea ([LEG_DAS])', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = 'CCD_QC_LEG_V'), 'WARN_LEG_DAS_YN', (SELECT ISS_SEVERITY_ID FROM DVM_ISS_SEVERITY WHERE ISS_SEVERITY_CODE = 'WARN'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = 'CCD'), 'Y', 'Leg is too long (DAS based on start and end dates) &gt; 30 days', 'f?p=[APP_ID]:230:[APP_SESSION]::NO::P230_CRUISE_LEG_ID,P230_CRUISE_LEG_ID_COPY,P230_CRUISE_ID:[CRUISE_LEG_ID],,[CRUISE_ID]');</v>
       </c>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
@@ -2132,8 +2132,8 @@
         <v>insert into DVM_QC_OBJECTS (OBJECT_NAME, QC_OBJ_ACTIVE_YN, QC_SORT_ORDER) VALUES ('CCD_QC_CRUISE_SUPP_V', 'Y', NULL);</v>
       </c>
       <c r="N33" s="5" t="str">
-        <f t="shared" ref="N33:N34" si="1">CONCATENATE("INSERT INTO DVM_ERROR_TYPES (ERR_TYPE_NAME, ERR_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ERR_SEVERITY_ID, DATA_STREAM_ID, ERR_TYPE_ACTIVE_YN, ERR_TYPE_DESC, APP_LINK_TEMPLATE) VALUES ('", SUBSTITUTE(H33, "'", "''"), "', '", SUBSTITUTE(J33, "'", "''"), "', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = '", E33, "'), '", G33, "', (SELECT ERR_SEVERITY_ID FROM DVM_ERR_SEVERITY WHERE ERR_SEVERITY_CODE = '",D33, "'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = '",A33, "'), 'Y', '", SUBSTITUTE(I33, "'", "''"), "', '", SUBSTITUTE(K33, "'", "''"), "');")</f>
-        <v>INSERT INTO DVM_ERROR_TYPES (ERR_TYPE_NAME, ERR_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ERR_SEVERITY_ID, DATA_STREAM_ID, ERR_TYPE_ACTIVE_YN, ERR_TYPE_DESC, APP_LINK_TEMPLATE) VALUES ('Unusually High Number of Cruise Legs', 'The Cruise ([CRUISE_NAME]) with Start Date ([FORMAT_CRUISE_START_DATE]) and End Date ([FORMAT_CRUISE_END_DATE]) has an unusually high number of cruise legs ([NUM_LEGS]), normally there should be less than three legs for a given cruise', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = 'CCD_QC_CRUISE_SUPP_V'), 'HIGH_LEG_COUNT_YN', (SELECT ERR_SEVERITY_ID FROM DVM_ERR_SEVERITY WHERE ERR_SEVERITY_CODE = 'WARN'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = 'CCD2'), 'Y', 'The cruise has an unusually high ( &gt; 2) number of associated legs', 'f?p=[APP_ID]:220:[APP_SESSION]::NO::P220_CRUISE_ID,P220_CRUISE_ID_COPY:[CRUISE_ID],');</v>
+        <f t="shared" ref="N33:N34" si="1">CONCATENATE("INSERT INTO DVM_ISS_TYPES (ISS_TYPE_NAME, ISS_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ISS_SEVERITY_ID, DATA_STREAM_ID, ISS_TYPE_ACTIVE_YN, ISS_TYPE_DESC, APP_LINK_TEMPLATE) VALUES ('", SUBSTITUTE(H33, "'", "''"), "', '", SUBSTITUTE(J33, "'", "''"), "', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = '", E33, "'), '", G33, "', (SELECT ISS_SEVERITY_ID FROM DVM_ISS_SEVERITY WHERE ISS_SEVERITY_CODE = '",D33, "'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = '",A33, "'), 'Y', '", SUBSTITUTE(I33, "'", "''"), "', '", SUBSTITUTE(K33, "'", "''"), "');")</f>
+        <v>INSERT INTO DVM_ISS_TYPES (ISS_TYPE_NAME, ISS_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ISS_SEVERITY_ID, DATA_STREAM_ID, ISS_TYPE_ACTIVE_YN, ISS_TYPE_DESC, APP_LINK_TEMPLATE) VALUES ('Unusually High Number of Cruise Legs', 'The Cruise ([CRUISE_NAME]) with Start Date ([FORMAT_CRUISE_START_DATE]) and End Date ([FORMAT_CRUISE_END_DATE]) has an unusually high number of cruise legs ([NUM_LEGS]), normally there should be less than three legs for a given cruise', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = 'CCD_QC_CRUISE_SUPP_V'), 'HIGH_LEG_COUNT_YN', (SELECT ISS_SEVERITY_ID FROM DVM_ISS_SEVERITY WHERE ISS_SEVERITY_CODE = 'WARN'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = 'CCD2'), 'Y', 'The cruise has an unusually high ( &gt; 2) number of associated legs', 'f?p=[APP_ID]:220:[APP_SESSION]::NO::P220_CRUISE_ID,P220_CRUISE_ID_COPY:[CRUISE_ID],');</v>
       </c>
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
@@ -2182,7 +2182,7 @@
       <c r="M34" s="1"/>
       <c r="N34" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO DVM_ERROR_TYPES (ERR_TYPE_NAME, ERR_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ERR_SEVERITY_ID, DATA_STREAM_ID, ERR_TYPE_ACTIVE_YN, ERR_TYPE_DESC, APP_LINK_TEMPLATE) VALUES ('Invalid Number of Cruise Legs', 'The Cruise ([CRUISE_NAME]) with Start Date ([FORMAT_CRUISE_START_DATE]) and End Date ([FORMAT_CRUISE_END_DATE]) has an invalid number of cruise legs ([NUM_LEGS]), normally there should be no more than four legs', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = 'CCD_QC_CRUISE_SUPP_V'), 'INVALID_LEG_COUNT_YN', (SELECT ERR_SEVERITY_ID FROM DVM_ERR_SEVERITY WHERE ERR_SEVERITY_CODE = 'WARN'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = 'CCD2'), 'Y', 'The cruise has an invalid number of associated legs ( &gt; 4) ', 'f?p=[APP_ID]:220:[APP_SESSION]::NO::P220_CRUISE_ID,P220_CRUISE_ID_COPY:[CRUISE_ID],');</v>
+        <v>INSERT INTO DVM_ISS_TYPES (ISS_TYPE_NAME, ISS_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ISS_SEVERITY_ID, DATA_STREAM_ID, ISS_TYPE_ACTIVE_YN, ISS_TYPE_DESC, APP_LINK_TEMPLATE) VALUES ('Invalid Number of Cruise Legs', 'The Cruise ([CRUISE_NAME]) with Start Date ([FORMAT_CRUISE_START_DATE]) and End Date ([FORMAT_CRUISE_END_DATE]) has an invalid number of cruise legs ([NUM_LEGS]), normally there should be no more than four legs', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = 'CCD_QC_CRUISE_SUPP_V'), 'INVALID_LEG_COUNT_YN', (SELECT ISS_SEVERITY_ID FROM DVM_ISS_SEVERITY WHERE ISS_SEVERITY_CODE = 'WARN'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = 'CCD2'), 'Y', 'The cruise has an invalid number of associated legs ( &gt; 4) ', 'f?p=[APP_ID]:220:[APP_SESSION]::NO::P220_CRUISE_ID,P220_CRUISE_ID_COPY:[CRUISE_ID],');</v>
       </c>
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>

--- a/docs/QC Validation Criteria Template.xlsx
+++ b/docs/QC Validation Criteria Template.xlsx
@@ -23,9 +23,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="106">
   <si>
     <t>WARN</t>
-  </si>
-  <si>
-    <t>Error Type Description</t>
   </si>
   <si>
     <t>CCD_QC_LEG_OVERLAP_V</t>
@@ -338,6 +335,9 @@
   </si>
   <si>
     <t>The Cruise ([CRUISE_NAME]) with Start Date ([FORMAT_CRUISE_START_DATE]) and End Date ([FORMAT_CRUISE_END_DATE]) has an invalid number of cruise legs ([NUM_LEGS]), normally there should be no more than four legs</t>
+  </si>
+  <si>
+    <t>Issue Type Description</t>
   </si>
 </sst>
 </file>
@@ -797,8 +797,8 @@
   <dimension ref="A1:X888"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M32" sqref="M32"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -819,46 +819,46 @@
   <sheetData>
     <row r="1" spans="1:24" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D1" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="E1" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" s="12" t="s">
+      <c r="H1" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="I1" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="J1" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="I1" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>86</v>
-      </c>
       <c r="K1" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L1" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M1" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N1" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
@@ -873,35 +873,35 @@
     </row>
     <row r="2" spans="1:24" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L2" s="5" t="str">
         <f>CONCATENATE("insert into DVM_DATA_STREAMS (DATA_STREAM_CODE, DATA_STREAM_NAME, DATA_STREAM_PAR_TABLE) VALUES ('", SUBSTITUTE(A2, "'", "''"), "', '", SUBSTITUTE(B2, "'", "''"), "', '", SUBSTITUTE(C2, "'", "''"), "');")</f>
@@ -928,35 +928,35 @@
     </row>
     <row r="3" spans="1:24" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
@@ -977,35 +977,35 @@
     </row>
     <row r="4" spans="1:24" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
@@ -1026,35 +1026,35 @@
     </row>
     <row r="5" spans="1:24" s="7" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I5" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="J5" s="6" t="s">
-        <v>69</v>
-      </c>
       <c r="K5" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
@@ -1075,35 +1075,35 @@
     </row>
     <row r="6" spans="1:24" s="7" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H6" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J6" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="I6" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>66</v>
-      </c>
       <c r="K6" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
@@ -1124,35 +1124,35 @@
     </row>
     <row r="7" spans="1:24" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>0</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H7" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="I7" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="I7" s="3" t="s">
-        <v>55</v>
-      </c>
       <c r="J7" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
@@ -1173,37 +1173,37 @@
     </row>
     <row r="8" spans="1:24" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F8" s="5">
         <v>5</v>
       </c>
       <c r="G8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="I8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I8" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>21</v>
-      </c>
       <c r="K8" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
@@ -1224,35 +1224,35 @@
     </row>
     <row r="9" spans="1:24" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>0</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
@@ -1273,35 +1273,35 @@
     </row>
     <row r="10" spans="1:24" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>0</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
@@ -1322,37 +1322,37 @@
     </row>
     <row r="11" spans="1:24" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F11" s="5">
         <v>15</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L11" s="5"/>
       <c r="M11" s="5" t="str">
@@ -1376,37 +1376,37 @@
     </row>
     <row r="12" spans="1:24" s="7" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12" s="5">
         <v>20</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L12" s="5"/>
       <c r="M12" s="5" t="str">
@@ -1430,35 +1430,35 @@
     </row>
     <row r="13" spans="1:24" s="7" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
@@ -1479,37 +1479,37 @@
     </row>
     <row r="14" spans="1:24" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F14" s="5">
         <v>10</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
@@ -1530,35 +1530,35 @@
     </row>
     <row r="15" spans="1:24" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
@@ -1579,35 +1579,35 @@
     </row>
     <row r="16" spans="1:24" ht="51" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
@@ -1628,35 +1628,35 @@
     </row>
     <row r="17" spans="1:24" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>0</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H17" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="H17" s="9" t="s">
-        <v>53</v>
-      </c>
       <c r="I17" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
@@ -1677,35 +1677,35 @@
     </row>
     <row r="18" spans="1:24" ht="51" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>0</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F18" s="5"/>
       <c r="G18" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L18" s="5"/>
       <c r="M18" s="5" t="str">
@@ -2093,35 +2093,35 @@
     </row>
     <row r="33" spans="1:24" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B33" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B33" s="5" t="s">
-        <v>97</v>
-      </c>
       <c r="C33" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>0</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F33" s="3"/>
       <c r="G33" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H33" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="H33" s="1" t="s">
+      <c r="I33" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>100</v>
-      </c>
       <c r="J33" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K33" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L33" s="5" t="str">
         <f>CONCATENATE("insert into DVM_DATA_STREAMS (DATA_STREAM_CODE, DATA_STREAM_NAME, DATA_STREAM_PAR_TABLE) VALUES ('", SUBSTITUTE(A33, "'", "''"), "', '", SUBSTITUTE(B33, "'", "''"), "', '", SUBSTITUTE(C33, "'", "''"), "');")</f>
@@ -2148,35 +2148,35 @@
     </row>
     <row r="34" spans="1:24" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B34" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B34" s="5" t="s">
-        <v>97</v>
-      </c>
       <c r="C34" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>0</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H34" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="H34" s="3" t="s">
+      <c r="I34" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="I34" s="3" t="s">
-        <v>103</v>
-      </c>
       <c r="J34" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K34" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
@@ -24433,12 +24433,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
